--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Aquitaine/Liste_des_espèces_végétales_protégées_en_Aquitaine.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Aquitaine/Liste_des_espèces_végétales_protégées_en_Aquitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Aquitaine est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Aquitaine, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 8 mars 2002[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Aquitaine est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Aquitaine, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 8 mars 2002.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Algues marines
+          <t>Algues marines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Enteromorpha dangeardii Parriaud, Entéromorphe de Dangeard.
 Enteromorpha hendayensis Dangeard &amp; Parriaud, Entéromorphe d'Hendaye
 Enteromorpha limosa Parriaud, Entéromorphe des bourbiers
@@ -522,7 +540,43 @@
 Fucus chalonii J. Feld., Fucus de Chalon
 Fucus dichotomus Sauv., Fucus dichotome
 Lamprothamnium papulosum Groves., Lamprothamnium papuleux
-Bryophytes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Aquitaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bryophytes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Marchesïnïa mackaii (Hook.) S. Gray., Marchesinie de Mackay
 Sphagnum angustifolium (C. Jens. ex Russ.) C. Jens. in Tolf., Sphaigne à feuilles étroites
 Sphagnum contortum K.F. Schultz., Sphaigne contournée
@@ -535,7 +589,43 @@
 Sphagnum russowii Warnst., Sphaigne de Russow
 Sphagnum teres (Schimp.) Angstr. in Hartm., Spaigne étroitement cylindrique
 Sphagnum warnstorfii Russ., Sphaigne de Warnstorf
-Ptéridophytes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Aquitaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anogramma leptophylla (L.) Link, Anogramme à frondes minces.
 Asplenium marinum L., Asplénium marin
 Asplenium obovatum subsp. lanceolatum P. Silva, Asplénium lancéolé
@@ -546,10 +636,83 @@
 Lycopodium clavatum L., Lycopode en massue
 Ophioglossum lusitanicum L., Ophioglosse du Portugal
 Woodsia alpina (Bolton) Gray., Woodsia des Alpes
-Phanérogames gymnospermes
-Ephedra distachya L., Ephèdre à deux épis, raisin de mer
-Phanérogames angiospermes
-Monocotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Aquitaine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phanérogames gymnospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ephedra distachya L., Ephèdre à deux épis, raisin de mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Aquitaine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agrostis capillaris  L. subsp. castellana (Boiss. &amp; Reuter) O. Bolos &amp; al., Agrostide de Castille
 Agrostis truncatula Pal. subsp. commista  Castroviejo &amp; Charpin., Agrostide de Durieu
 Allium roseum L., Ail rosé
@@ -600,7 +763,47 @@
 Vallisneria spiralis L., Vallisnérie en spirale
 Zannichellia palustris L., Zannichellie des marais
 Zostera marina L., Zostère marine
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Aquitaine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aconitum variegatum L. subsp. pyrenaicum Vivant., Aconit  panaché sous-espèce des Pyrénées.
 Adenocarpus complicatus (L.) Gay., Adénocarpe à feuilles pliées
 Aetheorhiza bulbosa (L.) Cass., Aethéorhiza  bulbeuse, crépide bulbeuse
@@ -726,41 +929,120 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces protégées en Dordogne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lichens
-Lobaria pulmonaria (L.) Hoffm., Lichen pulmonaire.
-Ptéridophytes
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lichens</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria (L.) Hoffm., Lichen pulmonaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Dordogne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium septentrionale  (L.) Hoffm., Asplénium septentrional
 Cystopteris fragilis (L.) Bernh., Cystoptéris fragile.
 Gymnocarpium robertianum (Hoffm.) Newman., Gymnocarpium herbe-à-Robert.
 Oreopteris limbosperma (Bell. ex All.) Holub., Oréopteris à sores marginaux.
-Phanérogames angiospermes
-Monotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Dordogne</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Monotylédones</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carex digitata L., Laiche digitée.
 Carex humilis Leysser., Laiche humble.
 Cephalanthera damasonium (Miller) Druce., Céphalanthère à grandes fleurs.
@@ -774,7 +1056,47 @@
 Orchis simia Lam., Orchis singe.
 Paris quadrifolia L., Parisette à quatre feuilles.
 Scilla lilio-hyacinthus L., Scille lis-jacinthe.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Dordogne</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amelanchier ovalis Medik., Amelanchier ovale.
 Arabis alpina L., Arabette des Alpes.
 Astragalus monspessulanus L., Astragale de Montpellier.
@@ -795,37 +1117,82 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Liste des espèces protégées en Gironde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adiantum capillus-veneris L., Adiantum cheveu-de-vénus.
 Polystichum aculeatum (L.) Roth., Polystic à aiguillons.
-Phanérogames angiospermes
-Monotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Gironde</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Monotylédones</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carex digitata L., Laiche digitée.
 Convallaria majalis L., Muguet de mai.
 Epipactis helleborine (L.) Crantz., Epipactis helléborine.
@@ -834,7 +1201,47 @@
 Neottia nidus-avis (L.) L.C.M. Richard., Néottie nid-d'oiseau.
 Orchis laxiflora Lam., Orchis à fleurs lâches.
 Orchis militaris L., Orchis militaire.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées en Gironde</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anemone ranunculoides L., Anémone fausse renoncule.
 Arabis turrita L., Arabette tourette.
 Carduncellus mitissimus (L.) DC., Cardoncelle molle.
@@ -855,41 +1262,126 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Liste des espèces protégées dans les Landes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adiantum capillus-veneris L., Adiantum cheveu-de-vénus.
 Polystichum aculeatum (L.) Roth., Polystic à aiguillons.
-Phanérogames angiospermes
-Monotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées dans les Landes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Monotylédones</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carex tomentosa L., Laiche tomenteuse.
 Erythronium dens-canis L., Erythrone dent-de-chien.
 Scilla lilio-hyacinthus L., Scille lis-jacinthe.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées dans les Landes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arabis alpina L., Arabette des Alpes.
 Crithmum maritimum L., Crithmum maritime.
 Parnassia palustris L., Parnassie des marais.
@@ -897,44 +1389,129 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Liste des espèces protégées dans le Lot-et-Garonne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ptéridophytes
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium septentrionale (L.) Hoffm., Asplénium septentrional.
 Ophioglossum vulgatum L., Ophioglosse vulgaire.
 Polystichum aculeatum (L.) Roth., Polystic à aiguillons.
-Phanérogames angiospermes
-Monotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées dans le Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Monotylédones</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asparagus acutifolius L., Asperge à feuilles aiguës.
 Cephalanthera rubra (L.) L.C.M. Richard., Céphalanthère rouge.
 Convallaria majalis L., Muguet de mai.
 Hyacinthoides non-scripta (L.) Chouard ex Rothm., Fausse jacinthe à feuilles non marquées, endymion penché.
 Ophrys lutea Cav., Ophrys jaune.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces protégées dans le Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Catananche caerulea L., Cupidone bleue.
 Coronilla scorpioides (L.) Koch., Coronille faux scorpion.
 Pistacia terebinthus L., Pistachier térébinthe.
@@ -943,38 +1520,80 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Espèces protégées dans les Pyrénées-Atlantiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monocotylédones
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carex tomentosa L., Laiche tomenteuse.
 Galanthus nivalis L., Galanthe des neiges, perce-neige.
 Polypogon monspeliensis (L.) Desf., Polypogon de Montpellier.
 Rhynchospora fusca (L.) Aiton fil., Rhynchospora brun-rougeâtre.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Aquitaine</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espèces protégées dans les Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aster tripolium L., Aster tripolium.
 Centranthus lecoqii Jordan., Centranthe de Lecoq.
 Daphne cneorum L., Daphné camélée.
